--- a/Study 3/Models_link/Mapping/Map_GCAM.xlsx
+++ b/Study 3/Models_link/Mapping/Map_GCAM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM-COMPACT\Models_link\Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM_COMPACT_1stMC\Study 3\Models_link\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185FA21C-AF7E-4406-BD17-ED4B9B9578C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC4AE6D-5AD6-4AA3-B241-5E520FFA7667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shock_map" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="Satellite account" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Commodity!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Commodity!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Variable!$A$1:$A$134</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,8 +43,27 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={39E2FE99-4DA4-4FB4-A124-B8EC4F83EAD2}</author>
+  </authors>
+  <commentList>
+    <comment ref="K12" authorId="0" shapeId="0" xr:uid="{39E2FE99-4DA4-4FB4-A124-B8EC4F83EAD2}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    1 USD 2010 = 0.75 EUR 2010
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="860">
   <si>
     <t>Activity</t>
   </si>
@@ -490,9 +509,6 @@
     <t>China</t>
   </si>
   <si>
-    <t>Russia</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -823,9 +839,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>cluster 2</t>
-  </si>
-  <si>
     <t>Functions clustering</t>
   </si>
   <si>
@@ -850,33 +863,9 @@
     <t>Emissions|CO2|Energy|Demand|Residential and Commercial|Residential</t>
   </si>
   <si>
-    <t>cluster 3</t>
-  </si>
-  <si>
-    <t>cluster 4</t>
-  </si>
-  <si>
-    <t>cluster 5</t>
-  </si>
-  <si>
     <t>Satellite account</t>
   </si>
   <si>
-    <t>Hydrogen</t>
-  </si>
-  <si>
-    <t>Hydrogen production with electrolysis</t>
-  </si>
-  <si>
-    <t>Hydrogen production with steam reforming</t>
-  </si>
-  <si>
-    <t>EU27</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
     <t>Activities auxiliary to financial intermediation (67)</t>
   </si>
   <si>
@@ -955,9 +944,6 @@
     <t>Distribution and trade of electricity</t>
   </si>
   <si>
-    <t>Distribution of gaseous fuels through mains</t>
-  </si>
-  <si>
     <t>Education (80)</t>
   </si>
   <si>
@@ -1066,9 +1052,6 @@
     <t>Manufacture of furniture; manufacturing n.e.c. (36)</t>
   </si>
   <si>
-    <t>Manufacture of gas;</t>
-  </si>
-  <si>
     <t>Manufacture of glass and glass products</t>
   </si>
   <si>
@@ -1108,12 +1091,6 @@
     <t>Manufacture of wood and of products of wood and cork, except furniture; manufacture of articles of straw and plaiting materials (20)</t>
   </si>
   <si>
-    <t>Manufacturing of electrolyser</t>
-  </si>
-  <si>
-    <t>Manufacturing of steam reformer</t>
-  </si>
-  <si>
     <t>Manure treatment (biogas), storage and land application</t>
   </si>
   <si>
@@ -1291,9 +1268,6 @@
     <t>Re-processing of secondary glass into new glass</t>
   </si>
   <si>
-    <t>Re-processing of secondary lead into new lead</t>
-  </si>
-  <si>
     <t>Re-processing of secondary other non-ferrous metals into new other non-ferrous metals</t>
   </si>
   <si>
@@ -1342,9 +1316,6 @@
     <t>Sea and coastal water transport</t>
   </si>
   <si>
-    <t>Steel production through DRI-EAF route</t>
-  </si>
-  <si>
     <t>Sugar refining</t>
   </si>
   <si>
@@ -1390,9 +1361,6 @@
     <t>Anthracite</t>
   </si>
   <si>
-    <t>Ash for treatment; Re-processing of ash into clinker</t>
-  </si>
-  <si>
     <t>Aviation Gasoline</t>
   </si>
   <si>
@@ -1417,18 +1385,9 @@
     <t>Blast Furnace Gas</t>
   </si>
   <si>
-    <t>Bottles for treatment; Recycling of bottles by direct reuse</t>
-  </si>
-  <si>
-    <t>Bricks; tiles and construction products; in baked clay</t>
-  </si>
-  <si>
     <t>Cattle</t>
   </si>
   <si>
-    <t>Cement; lime and plaster</t>
-  </si>
-  <si>
     <t>Ceramic goods</t>
   </si>
   <si>
@@ -1438,9 +1397,6 @@
     <t>Charcoal</t>
   </si>
   <si>
-    <t>Chemical and fertilizer minerals; salt and other mining and quarrying products n.e.c.</t>
-  </si>
-  <si>
     <t>Coal Tar</t>
   </si>
   <si>
@@ -1453,9 +1409,6 @@
     <t>Coking Coal</t>
   </si>
   <si>
-    <t>Collected and purified water; distribution services of water (41)</t>
-  </si>
-  <si>
     <t>Computer and related services (72)</t>
   </si>
   <si>
@@ -1471,9 +1424,6 @@
     <t>Crops nec</t>
   </si>
   <si>
-    <t>Crude petroleum and services related to crude oil extraction; excluding surveying</t>
-  </si>
-  <si>
     <t>Dairy products</t>
   </si>
   <si>
@@ -1492,12 +1442,6 @@
     <t>Ethane</t>
   </si>
   <si>
-    <t>Fabricated metal products; except machinery and equipment (28)</t>
-  </si>
-  <si>
-    <t>Financial intermediation services; except insurance and pension funding services (65)</t>
-  </si>
-  <si>
     <t>Fish and other fishing products; services incidental of fishing (05)</t>
   </si>
   <si>
@@ -1558,9 +1502,6 @@
     <t>Inland water transportation services</t>
   </si>
   <si>
-    <t>Insurance and pension funding services; except compulsory social security services (66)</t>
-  </si>
-  <si>
     <t>Intert/metal waste for treatment: incineration</t>
   </si>
   <si>
@@ -1573,12 +1514,6 @@
     <t>Kerosene Type Jet Fuel</t>
   </si>
   <si>
-    <t>Lead; zinc and tin and products thereof</t>
-  </si>
-  <si>
-    <t>Lead; zinc and tin ores and concentrates</t>
-  </si>
-  <si>
     <t>Leather and leather products (19)</t>
   </si>
   <si>
@@ -1603,27 +1538,18 @@
     <t>Meat products nec</t>
   </si>
   <si>
-    <t>Medical; precision and optical instruments; watches and clocks (33)</t>
-  </si>
-  <si>
     <t>Membership organisation services n.e.c. (91)</t>
   </si>
   <si>
     <t>Motor Gasoline</t>
   </si>
   <si>
-    <t>Motor vehicles; trailers and semi-trailers (34)</t>
-  </si>
-  <si>
     <t>Naphtha</t>
   </si>
   <si>
     <t>Natural Gas Liquids</t>
   </si>
   <si>
-    <t>Natural gas and services related to natural gas extraction; excluding surveying</t>
-  </si>
-  <si>
     <t>Nickel ores and concentrates</t>
   </si>
   <si>
@@ -1717,9 +1643,6 @@
     <t>Plastic waste for treatment: landfill</t>
   </si>
   <si>
-    <t>Plastics; basic</t>
-  </si>
-  <si>
     <t>Post and telecommunication services (64)</t>
   </si>
   <si>
@@ -1735,9 +1658,6 @@
     <t>Printed matter and recorded media (22)</t>
   </si>
   <si>
-    <t>Products of forestry; logging and related services (02)</t>
-  </si>
-  <si>
     <t>Products of meat cattle</t>
   </si>
   <si>
@@ -1750,18 +1670,12 @@
     <t>Public administration and defence services; compulsory social security services (75)</t>
   </si>
   <si>
-    <t>Radio; television and communication equipment and apparatus (32)</t>
-  </si>
-  <si>
     <t>Railway transportation services</t>
   </si>
   <si>
     <t>Real estate services (70)</t>
   </si>
   <si>
-    <t>Recreational; cultural and sporting services (92)</t>
-  </si>
-  <si>
     <t>Refinery Feedstocks</t>
   </si>
   <si>
@@ -1774,54 +1688,18 @@
     <t>Research and development services (73)</t>
   </si>
   <si>
-    <t>Retail  trade services; except of motor vehicles and motorcycles; repair services of personal and household goods (52)</t>
-  </si>
-  <si>
     <t>Retail trade services of motor fuel</t>
   </si>
   <si>
     <t>Rubber and plastic products (25)</t>
   </si>
   <si>
-    <t>Sale; maintenance; repair of motor vehicles; motor vehicles parts; motorcycles; motor cycles parts and accessoiries</t>
-  </si>
-  <si>
     <t>Sand and clay</t>
   </si>
   <si>
     <t>Sea and coastal water transportation services</t>
   </si>
   <si>
-    <t>Secondary aluminium for treatment; Re-processing of secondary aluminium into new aluminium</t>
-  </si>
-  <si>
-    <t>Secondary construction material for treatment; Re-processing of secondary construction material into aggregates</t>
-  </si>
-  <si>
-    <t>Secondary copper for treatment; Re-processing of secondary copper into new copper</t>
-  </si>
-  <si>
-    <t>Secondary glass for treatment; Re-processing of secondary glass into new glass</t>
-  </si>
-  <si>
-    <t>Secondary lead for treatment; Re-processing of secondary lead into new lead</t>
-  </si>
-  <si>
-    <t>Secondary other non-ferrous metals for treatment; Re-processing of secondary other non-ferrous metals into new other non-ferrous metals</t>
-  </si>
-  <si>
-    <t>Secondary paper for treatment; Re-processing of secondary paper into new pulp</t>
-  </si>
-  <si>
-    <t>Secondary plastic for treatment; Re-processing of secondary plastic into new plastic</t>
-  </si>
-  <si>
-    <t>Secondary preciuos metals for treatment; Re-processing of secondary preciuos metals into new preciuos metals</t>
-  </si>
-  <si>
-    <t>Secondary steel for treatment; Re-processing of secondary steel into new steel</t>
-  </si>
-  <si>
     <t>Services auxiliary to financial intermediation (67)</t>
   </si>
   <si>
@@ -1840,9 +1718,6 @@
     <t>Sugar</t>
   </si>
   <si>
-    <t>Sugar cane; sugar beet</t>
-  </si>
-  <si>
     <t>Supporting and auxiliary transport services; travel agency services (63)</t>
   </si>
   <si>
@@ -1867,9 +1742,6 @@
     <t>Uranium and thorium ores (12)</t>
   </si>
   <si>
-    <t>Vegetables; fruit; nuts</t>
-  </si>
-  <si>
     <t>Wearing apparel; furs (18)</t>
   </si>
   <si>
@@ -1879,24 +1751,15 @@
     <t>White Spirit &amp; SBP</t>
   </si>
   <si>
-    <t>Wholesale trade and commission trade services; except of motor vehicles and motorcycles (51)</t>
-  </si>
-  <si>
     <t>Wood and products of wood and cork (except furniture); articles of straw and plaiting materials (20)</t>
   </si>
   <si>
-    <t>Wood material for treatment; Re-processing of secondary wood material into new wood material</t>
-  </si>
-  <si>
     <t>Wood waste for treatment: incineration</t>
   </si>
   <si>
     <t>Wood waste for treatment: landfill</t>
   </si>
   <si>
-    <t>Wool; silk-worm cocoons</t>
-  </si>
-  <si>
     <t>products of Vegetable oils and fats</t>
   </si>
   <si>
@@ -2590,15 +2453,6 @@
     <t>Unused waste (Unreg_w)</t>
   </si>
   <si>
-    <t>Oil products</t>
-  </si>
-  <si>
-    <t>Solids - Fossil</t>
-  </si>
-  <si>
-    <t>Solids - Bioenergy</t>
-  </si>
-  <si>
     <t>Secondary Energy|Electricity|Biomass</t>
   </si>
   <si>
@@ -2612,6 +2466,180 @@
   </si>
   <si>
     <t>Secondary Energy|Electricity|Wind</t>
+  </si>
+  <si>
+    <t>Capital Cost|Electricity|Solar|PV</t>
+  </si>
+  <si>
+    <t>Capital Cost|Electricity|Wind|Offshore</t>
+  </si>
+  <si>
+    <t>Capital Cost|Electricity|Wind|Onshore</t>
+  </si>
+  <si>
+    <t>EU27+UK</t>
+  </si>
+  <si>
+    <t>Manufacture of gas; distribution of gaseous fuels through mains</t>
+  </si>
+  <si>
+    <t>Production of DFIG generators</t>
+  </si>
+  <si>
+    <t>Production of PMG generators</t>
+  </si>
+  <si>
+    <t>Production of mono-Si and poli-Si cells</t>
+  </si>
+  <si>
+    <t>Production of offshore wind plants</t>
+  </si>
+  <si>
+    <t>Production of onshore wind plants</t>
+  </si>
+  <si>
+    <t>Production of photovoltaic modules</t>
+  </si>
+  <si>
+    <t>Production of photovoltaic plants</t>
+  </si>
+  <si>
+    <t>Re-processing of secondary lead into new lead, zinc and tin</t>
+  </si>
+  <si>
+    <t>Ash for treatment, Re-processing of ash into clinker</t>
+  </si>
+  <si>
+    <t>Bottles for treatment, Recycling of bottles by direct reuse</t>
+  </si>
+  <si>
+    <t>Bricks, tiles and construction products, in baked clay</t>
+  </si>
+  <si>
+    <t>Cement, lime and plaster</t>
+  </si>
+  <si>
+    <t>Chemical and fertilizer minerals, salt and other mining and quarrying products n.e.c.</t>
+  </si>
+  <si>
+    <t>Collected and purified water, distribution services of water (41)</t>
+  </si>
+  <si>
+    <t>Crude petroleum and services related to crude oil extraction, excluding surveying</t>
+  </si>
+  <si>
+    <t>DFIG generators</t>
+  </si>
+  <si>
+    <t>Dysprosium</t>
+  </si>
+  <si>
+    <t>Fabricated metal products, except machinery and equipment (28)</t>
+  </si>
+  <si>
+    <t>Financial intermediation services, except insurance and pension funding services (65)</t>
+  </si>
+  <si>
+    <t>Insurance and pension funding services, except compulsory social security services (66)</t>
+  </si>
+  <si>
+    <t>Lead, zinc and tin and products thereof</t>
+  </si>
+  <si>
+    <t>Lead, zinc and tin ores and concentrates</t>
+  </si>
+  <si>
+    <t>Medical, precision and optical instruments, watches and clocks (33)</t>
+  </si>
+  <si>
+    <t>Mono-Si and poli-Si cells</t>
+  </si>
+  <si>
+    <t>Motor vehicles, trailers and semi-trailers (34)</t>
+  </si>
+  <si>
+    <t>Natural gas and services related to natural gas extraction, excluding surveying</t>
+  </si>
+  <si>
+    <t>Neodymium</t>
+  </si>
+  <si>
+    <t>Offshore wind plants</t>
+  </si>
+  <si>
+    <t>Onshore wind plants</t>
+  </si>
+  <si>
+    <t>PMG generators</t>
+  </si>
+  <si>
+    <t>Photovoltaic modules</t>
+  </si>
+  <si>
+    <t>Photovoltaic plants</t>
+  </si>
+  <si>
+    <t>Products of forestry, logging and related services (02)</t>
+  </si>
+  <si>
+    <t>Radio, television and communication equipment and apparatus (32)</t>
+  </si>
+  <si>
+    <t>Raw silicon</t>
+  </si>
+  <si>
+    <t>Recreational, cultural and sporting services (92)</t>
+  </si>
+  <si>
+    <t>Retail  trade services, except of motor vehicles and motorcycles; repair services of personal and household goods (52)</t>
+  </si>
+  <si>
+    <t>Secondary aluminium for treatment, Re-processing of secondary aluminium into new aluminium</t>
+  </si>
+  <si>
+    <t>Secondary construction material for treatment, Re-processing of secondary construction material into aggregates</t>
+  </si>
+  <si>
+    <t>Secondary copper for treatment, Re-processing of secondary copper into new copper</t>
+  </si>
+  <si>
+    <t>Secondary glass for treatment, Re-processing of secondary glass into new glass</t>
+  </si>
+  <si>
+    <t>Secondary lead for treatment, Re-processing of secondary lead into new lead</t>
+  </si>
+  <si>
+    <t>Secondary other non-ferrous metals for treatment, Re-processing of secondary other non-ferrous metals into new other non-ferrous metals</t>
+  </si>
+  <si>
+    <t>Secondary paper for treatment, Re-processing of secondary paper into new pulp</t>
+  </si>
+  <si>
+    <t>Secondary plastic for treatment, Re-processing of secondary plastic into new plastic</t>
+  </si>
+  <si>
+    <t>Secondary preciuos metals for treatment, Re-processing of secondary preciuos metals into new preciuos metals</t>
+  </si>
+  <si>
+    <t>Secondary steel for treatment, Re-processing of secondary steel into new steel</t>
+  </si>
+  <si>
+    <t>Sugar cane, sugar beet</t>
+  </si>
+  <si>
+    <t>Vegetables, fruit, nuts</t>
+  </si>
+  <si>
+    <t>Wholesale trade and commission trade services, except of motor vehicles and motorcycles (51)</t>
+  </si>
+  <si>
+    <t>Wood material for treatment, Re-processing of secondary wood material into new wood material</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>final_demand_update</t>
   </si>
   <si>
     <t>Production of electricity by other RES</t>
@@ -2720,7 +2748,9 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Lorenzo Rinaldi" id="{BC933A7D-8588-46D3-AE20-CD3CD07EA9E9}" userId="48074f34262f04a8" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3008,28 +3038,37 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K12" dT="2023-11-15T15:20:45.79" personId="{BC933A7D-8588-46D3-AE20-CD3CD07EA9E9}" id="{39E2FE99-4DA4-4FB4-A124-B8EC4F83EAD2}">
+    <text xml:space="preserve">1 USD 2010 = 0.75 EUR 2010
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502CDA3E-637B-4318-B921-CB40339D00B7}">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502CDA3E-637B-4318-B921-CB40339D00B7}">
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:J11"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="30.42578125" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3047,7 +3086,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>139</v>
@@ -3059,24 +3098,24 @@
         <v>143</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>851</v>
+        <v>796</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
         <v>140</v>
@@ -3085,21 +3124,21 @@
         <v>142</v>
       </c>
       <c r="H2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>852</v>
+        <v>797</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="F3" t="s">
         <v>140</v>
@@ -3108,21 +3147,21 @@
         <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>853</v>
+        <v>798</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="F4" t="s">
         <v>140</v>
@@ -3131,10 +3170,10 @@
         <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3145,7 +3184,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F5" t="s">
         <v>140</v>
@@ -3154,10 +3193,10 @@
         <v>142</v>
       </c>
       <c r="H5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3168,7 +3207,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="F6" t="s">
         <v>140</v>
@@ -3177,10 +3216,10 @@
         <v>142</v>
       </c>
       <c r="H6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3191,7 +3230,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="F7" t="s">
         <v>140</v>
@@ -3200,21 +3239,21 @@
         <v>142</v>
       </c>
       <c r="H7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>854</v>
+        <v>799</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="F8" t="s">
         <v>140</v>
@@ -3223,10 +3262,10 @@
         <v>142</v>
       </c>
       <c r="H8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3237,7 +3276,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="F9" t="s">
         <v>140</v>
@@ -3246,10 +3285,10 @@
         <v>142</v>
       </c>
       <c r="H9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3260,7 +3299,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="F10" t="s">
         <v>140</v>
@@ -3269,21 +3308,21 @@
         <v>142</v>
       </c>
       <c r="H10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>855</v>
+        <v>800</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="F11" t="s">
         <v>140</v>
@@ -3292,14 +3331,93 @@
         <v>142</v>
       </c>
       <c r="H11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J11" t="s">
-        <v>262</v>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B12" t="s">
+        <v>837</v>
+      </c>
+      <c r="D12" t="s">
+        <v>566</v>
+      </c>
+      <c r="F12" t="s">
+        <v>857</v>
+      </c>
+      <c r="G12" t="s">
+        <v>142</v>
+      </c>
+      <c r="H12" t="s">
+        <v>858</v>
+      </c>
+      <c r="J12" t="s">
+        <v>837</v>
+      </c>
+      <c r="K12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="B13" t="s">
+        <v>833</v>
+      </c>
+      <c r="D13" t="s">
+        <v>566</v>
+      </c>
+      <c r="F13" t="s">
+        <v>857</v>
+      </c>
+      <c r="G13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" t="s">
+        <v>858</v>
+      </c>
+      <c r="J13" t="s">
+        <v>833</v>
+      </c>
+      <c r="K13">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B14" t="s">
+        <v>834</v>
+      </c>
+      <c r="D14" t="s">
+        <v>566</v>
+      </c>
+      <c r="F14" t="s">
+        <v>857</v>
+      </c>
+      <c r="G14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" t="s">
+        <v>858</v>
+      </c>
+      <c r="J14" t="s">
+        <v>834</v>
+      </c>
+      <c r="K14">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3307,7 +3425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FC06A9-C5DE-4D61-A94D-90BFF39B3D90}">
   <dimension ref="A1:A135"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
@@ -3973,22 +4091,22 @@
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -3999,10 +4117,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA699B6D-88D4-4EEA-B957-978B8CD0D161}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4023,47 +4141,31 @@
         <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>275</v>
+        <v>804</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4073,1404 +4175,1391 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01A05D5D-78A8-40F2-A6FC-802F65DFA38B}">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C126" sqref="C126"/>
+      <selection pane="bottomRight" activeCell="A115" sqref="A115:A126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="121.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>277</v>
       </c>
-      <c r="B2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>278</v>
       </c>
-      <c r="B3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>279</v>
       </c>
-      <c r="B4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>280</v>
       </c>
-      <c r="B5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B15" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>281</v>
       </c>
-      <c r="B6" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B10" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>287</v>
-      </c>
-      <c r="B12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>288</v>
-      </c>
-      <c r="B13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>290</v>
-      </c>
-      <c r="B15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>291</v>
-      </c>
       <c r="B16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="B22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B24" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B31" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B38" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>273</v>
+        <v>304</v>
       </c>
       <c r="B39" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B56" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>337</v>
+        <v>805</v>
       </c>
       <c r="B64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B66" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B68" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="B73" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B79" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B80" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B81" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B82" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B83" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B84" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B85" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B86" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B87" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B88" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B89" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B90" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B91" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="B93" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B94" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B95" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="B96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="B97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B98" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="B101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="B105" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B108" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B109" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B111" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>376</v>
+      </c>
+      <c r="B112" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>806</v>
+      </c>
+      <c r="B113" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>807</v>
+      </c>
+      <c r="B114" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>377</v>
+      </c>
+      <c r="B115" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>378</v>
+      </c>
+      <c r="B116" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>379</v>
+      </c>
+      <c r="B117" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>380</v>
+      </c>
+      <c r="B118" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>381</v>
+      </c>
+      <c r="B119" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>382</v>
+      </c>
+      <c r="B120" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>383</v>
+      </c>
+      <c r="B121" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>384</v>
+      </c>
+      <c r="B122" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>385</v>
       </c>
-      <c r="B112" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="B123" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>386</v>
       </c>
-      <c r="B113" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="B124" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>387</v>
       </c>
-      <c r="B114" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="B125" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>388</v>
       </c>
-      <c r="B115" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="B126" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>389</v>
       </c>
-      <c r="B116" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="B127" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>808</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>809</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>810</v>
+      </c>
+      <c r="B130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>811</v>
+      </c>
+      <c r="B131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>812</v>
+      </c>
+      <c r="B132" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>390</v>
       </c>
-      <c r="B117" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B133" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>391</v>
       </c>
-      <c r="B118" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="B134" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>392</v>
       </c>
-      <c r="B119" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
+      <c r="B135" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>393</v>
       </c>
-      <c r="B120" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="B136" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>394</v>
       </c>
-      <c r="B121" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="B137" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>395</v>
       </c>
-      <c r="B122" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
+      <c r="B138" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>396</v>
       </c>
-      <c r="B123" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="B139" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>397</v>
       </c>
-      <c r="B124" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
+      <c r="B140" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>398</v>
       </c>
-      <c r="B125" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+      <c r="B141" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>399</v>
       </c>
-      <c r="B126" t="s">
-        <v>258</v>
-      </c>
-      <c r="C126" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
+      <c r="B142" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
         <v>400</v>
       </c>
-      <c r="B127" t="s">
-        <v>258</v>
-      </c>
-      <c r="C127" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>401</v>
-      </c>
-      <c r="B128" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>402</v>
-      </c>
-      <c r="B129" t="s">
-        <v>258</v>
-      </c>
-      <c r="C129" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>403</v>
-      </c>
-      <c r="B130" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>404</v>
-      </c>
-      <c r="B131" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>405</v>
-      </c>
-      <c r="B132" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>406</v>
-      </c>
-      <c r="B133" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>407</v>
-      </c>
-      <c r="B134" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>408</v>
-      </c>
-      <c r="B135" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>409</v>
-      </c>
-      <c r="B136" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>410</v>
-      </c>
-      <c r="B137" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>411</v>
-      </c>
-      <c r="B138" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>412</v>
-      </c>
-      <c r="B139" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>413</v>
-      </c>
-      <c r="B140" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>414</v>
-      </c>
-      <c r="B141" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>415</v>
-      </c>
-      <c r="B142" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>416</v>
-      </c>
       <c r="B143" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>417</v>
+        <v>813</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="B145" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="B146" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
       <c r="B147" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="B149" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="B150" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="B151" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="B152" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="B153" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="B154" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="B155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B156" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="B157" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="B158" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>415</v>
       </c>
       <c r="B159" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B160" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>433</v>
+        <v>4</v>
       </c>
       <c r="B161" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="B162" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="B163" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B164" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B165" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="B166" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="B167" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="B168" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B169" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="B170" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B171" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D20 A2:A50">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="C2:C20">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5479,1636 +5568,1625 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DC6C0B-14CA-49AC-B9FE-393229EC3E0E}">
-  <dimension ref="A1:F191"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E16" sqref="E16"/>
       <selection pane="topRight" activeCell="E16" sqref="E16"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
-      <selection pane="bottomRight" activeCell="D67" sqref="D67"/>
+      <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="128.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>543</v>
+        <v>427</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>609</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>607</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>529</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>598</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>554</v>
+        <v>814</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>432</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>459</v>
+        <v>433</v>
       </c>
       <c r="B10" t="s">
-        <v>258</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>553</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>559</v>
+        <v>435</v>
       </c>
       <c r="B12" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>436</v>
       </c>
       <c r="B13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="B15" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>616</v>
+        <v>438</v>
       </c>
       <c r="B16" t="s">
-        <v>258</v>
-      </c>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>517</v>
+        <v>439</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
-      </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>516</v>
+        <v>815</v>
       </c>
       <c r="B18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>563</v>
+        <v>816</v>
       </c>
       <c r="B19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="B20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>817</v>
+      </c>
+      <c r="B21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>441</v>
+      </c>
+      <c r="B22" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>442</v>
+      </c>
+      <c r="B23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>443</v>
+      </c>
+      <c r="B24" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>818</v>
+      </c>
+      <c r="B25" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B26" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>444</v>
+      </c>
+      <c r="B27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>445</v>
+      </c>
+      <c r="B28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>446</v>
+      </c>
+      <c r="B29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>447</v>
       </c>
-      <c r="B21" t="s">
-        <v>258</v>
-      </c>
-      <c r="D21" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>468</v>
-      </c>
-      <c r="B22" t="s">
-        <v>258</v>
-      </c>
-      <c r="D22" t="s">
-        <v>849</v>
-      </c>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>531</v>
-      </c>
-      <c r="B23" t="s">
-        <v>258</v>
-      </c>
-      <c r="D23" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>596</v>
-      </c>
-      <c r="B24" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>550</v>
-      </c>
-      <c r="B25" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>512</v>
-      </c>
-      <c r="B26" t="s">
-        <v>258</v>
-      </c>
-      <c r="D26" t="s">
-        <v>849</v>
-      </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B30" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>819</v>
+      </c>
+      <c r="B31" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>448</v>
+      </c>
+      <c r="B32" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>450</v>
       </c>
-      <c r="B27" t="s">
-        <v>258</v>
-      </c>
-      <c r="E27" t="s">
-        <v>850</v>
-      </c>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>551</v>
-      </c>
-      <c r="B28" t="s">
-        <v>258</v>
-      </c>
-      <c r="E28" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>475</v>
-      </c>
-      <c r="B29" t="s">
-        <v>258</v>
-      </c>
-      <c r="C29" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>525</v>
-      </c>
-      <c r="B30" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>524</v>
-      </c>
-      <c r="B31" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>532</v>
-      </c>
-      <c r="B32" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>606</v>
-      </c>
-      <c r="B33" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>506</v>
-      </c>
       <c r="B34" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="B35" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>526</v>
+        <v>452</v>
       </c>
       <c r="B36" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>446</v>
+        <v>820</v>
       </c>
       <c r="B37" t="s">
-        <v>258</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>560</v>
+        <v>821</v>
       </c>
       <c r="B38" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>510</v>
+        <v>453</v>
       </c>
       <c r="B39" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>536</v>
+        <v>454</v>
       </c>
       <c r="B40" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>595</v>
+        <v>455</v>
       </c>
       <c r="B41" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>580</v>
+        <v>822</v>
       </c>
       <c r="B42" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B43" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>564</v>
+        <v>457</v>
       </c>
       <c r="B44" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>565</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>566</v>
+        <v>458</v>
       </c>
       <c r="B46" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>518</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>617</v>
+        <v>823</v>
       </c>
       <c r="B48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>476</v>
+        <v>824</v>
       </c>
       <c r="B49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>383</v>
+        <v>459</v>
       </c>
       <c r="B50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>597</v>
+        <v>460</v>
       </c>
       <c r="B51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>486</v>
+        <v>461</v>
       </c>
       <c r="B52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>603</v>
+        <v>464</v>
       </c>
       <c r="B55" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>600</v>
+        <v>465</v>
       </c>
       <c r="B56" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>608</v>
+        <v>466</v>
       </c>
       <c r="B57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>511</v>
+        <v>467</v>
       </c>
       <c r="B58" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>612</v>
+        <v>468</v>
       </c>
       <c r="B59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="B60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="B61" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>588</v>
+        <v>471</v>
       </c>
       <c r="B62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>544</v>
+        <v>472</v>
       </c>
       <c r="B63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>562</v>
+        <v>473</v>
       </c>
       <c r="B64" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B65" t="s">
-        <v>258</v>
-      </c>
-      <c r="D65" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>475</v>
+      </c>
+      <c r="B66" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>476</v>
+      </c>
+      <c r="B67" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>477</v>
+      </c>
+      <c r="B68" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>478</v>
+      </c>
+      <c r="B69" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>825</v>
+      </c>
+      <c r="B70" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>479</v>
+      </c>
+      <c r="B71" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>480</v>
+      </c>
+      <c r="B72" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>481</v>
+      </c>
+      <c r="B73" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>482</v>
+      </c>
+      <c r="B74" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>826</v>
+      </c>
+      <c r="B75" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>827</v>
+      </c>
+      <c r="B76" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>483</v>
+      </c>
+      <c r="B77" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>484</v>
+      </c>
+      <c r="B78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>485</v>
+      </c>
+      <c r="B79" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>486</v>
+      </c>
+      <c r="B80" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>487</v>
+      </c>
+      <c r="B81" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>488</v>
+      </c>
+      <c r="B82" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>489</v>
+      </c>
+      <c r="B83" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>344</v>
+      </c>
+      <c r="B84" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>490</v>
+      </c>
+      <c r="B85" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>828</v>
+      </c>
+      <c r="B86" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>491</v>
+      </c>
+      <c r="B87" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>829</v>
+      </c>
+      <c r="B88" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>492</v>
+      </c>
+      <c r="B89" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>830</v>
+      </c>
+      <c r="B90" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>355</v>
+      </c>
+      <c r="B91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>493</v>
+      </c>
+      <c r="B92" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>494</v>
       </c>
-      <c r="B66" t="s">
-        <v>258</v>
-      </c>
-      <c r="D66" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>465</v>
-      </c>
-      <c r="B67" t="s">
-        <v>258</v>
-      </c>
-      <c r="D67" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>521</v>
-      </c>
-      <c r="B68" t="s">
-        <v>258</v>
-      </c>
-      <c r="C68" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>449</v>
-      </c>
-      <c r="B69" t="s">
-        <v>258</v>
-      </c>
-      <c r="C69" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>497</v>
-      </c>
-      <c r="B70" t="s">
-        <v>258</v>
-      </c>
-      <c r="C70" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>508</v>
-      </c>
-      <c r="B71" t="s">
-        <v>258</v>
-      </c>
-      <c r="C71" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>507</v>
-      </c>
-      <c r="B72" t="s">
-        <v>258</v>
-      </c>
-      <c r="C72" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>496</v>
-      </c>
-      <c r="B73" t="s">
-        <v>258</v>
-      </c>
-      <c r="C73" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>500</v>
-      </c>
-      <c r="B74" t="s">
-        <v>258</v>
-      </c>
-      <c r="C74" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>573</v>
-      </c>
-      <c r="B75" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>513</v>
-      </c>
-      <c r="B76" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>572</v>
-      </c>
-      <c r="B77" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>481</v>
-      </c>
-      <c r="B78" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>523</v>
-      </c>
-      <c r="B79" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>610</v>
-      </c>
-      <c r="B80" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>514</v>
-      </c>
-      <c r="B81" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>455</v>
-      </c>
-      <c r="B82" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>549</v>
-      </c>
-      <c r="B83" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>552</v>
-      </c>
-      <c r="B84" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>527</v>
-      </c>
-      <c r="B85" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>557</v>
-      </c>
-      <c r="B87" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>589</v>
-      </c>
-      <c r="B88" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>369</v>
-      </c>
-      <c r="B89" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>374</v>
-      </c>
-      <c r="B90" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>287</v>
-      </c>
-      <c r="B91" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>463</v>
-      </c>
-      <c r="B92" t="s">
-        <v>258</v>
-      </c>
-      <c r="E92" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>443</v>
-      </c>
       <c r="B93" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>454</v>
+        <v>831</v>
       </c>
       <c r="B94" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>453</v>
+        <v>832</v>
       </c>
       <c r="B95" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>533</v>
+        <v>495</v>
       </c>
       <c r="B96" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>578</v>
+        <v>496</v>
       </c>
       <c r="B97" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>498</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>585</v>
+        <v>497</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>461</v>
+        <v>833</v>
       </c>
       <c r="B100" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="B101" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="B102" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>448</v>
+        <v>834</v>
       </c>
       <c r="B103" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="B104" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="B105" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>591</v>
+        <v>502</v>
       </c>
       <c r="B106" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>561</v>
+        <v>503</v>
       </c>
       <c r="B107" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>590</v>
+        <v>504</v>
       </c>
       <c r="B108" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>445</v>
+        <v>505</v>
       </c>
       <c r="B109" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="B110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B111" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>586</v>
+        <v>508</v>
       </c>
       <c r="B112" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="B113" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>584</v>
+        <v>510</v>
       </c>
       <c r="B114" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>537</v>
+        <v>511</v>
       </c>
       <c r="B115" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>587</v>
+        <v>360</v>
       </c>
       <c r="B116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>492</v>
+        <v>835</v>
       </c>
       <c r="B117" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="B118" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B119" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="B120" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="B121" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>568</v>
+        <v>516</v>
       </c>
       <c r="B122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B123" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B124" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>540</v>
+        <v>519</v>
       </c>
       <c r="B125" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="B126" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>521</v>
       </c>
       <c r="B127" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>457</v>
+        <v>836</v>
       </c>
       <c r="B128" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>7</v>
+        <v>837</v>
       </c>
       <c r="B129" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>604</v>
+        <v>522</v>
       </c>
       <c r="B130" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>477</v>
+        <v>523</v>
       </c>
       <c r="B131" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>456</v>
+        <v>525</v>
       </c>
       <c r="B133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>542</v>
+        <v>364</v>
       </c>
       <c r="B134" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="B135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>8</v>
+        <v>527</v>
       </c>
       <c r="B136" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>478</v>
+        <v>528</v>
       </c>
       <c r="B137" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>594</v>
+        <v>529</v>
       </c>
       <c r="B138" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>469</v>
+        <v>530</v>
       </c>
       <c r="B139" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>471</v>
+        <v>368</v>
       </c>
       <c r="B140" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>583</v>
+        <v>369</v>
       </c>
       <c r="B141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>579</v>
+        <v>838</v>
       </c>
       <c r="B142" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>577</v>
+        <v>531</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>611</v>
+        <v>532</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>576</v>
+        <v>533</v>
       </c>
       <c r="B145" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="B146" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>569</v>
+        <v>392</v>
       </c>
       <c r="B147" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>535</v>
+        <v>839</v>
       </c>
       <c r="B148" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>605</v>
+        <v>535</v>
       </c>
       <c r="B149" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>581</v>
+        <v>395</v>
       </c>
       <c r="B150" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>503</v>
+        <v>840</v>
       </c>
       <c r="B151" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>444</v>
+        <v>536</v>
       </c>
       <c r="B152" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>599</v>
+        <v>841</v>
       </c>
       <c r="B153" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="B154" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="B155" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>504</v>
+        <v>539</v>
       </c>
       <c r="B156" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>592</v>
+        <v>540</v>
       </c>
       <c r="B157" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>570</v>
+        <v>842</v>
       </c>
       <c r="B158" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>574</v>
+        <v>541</v>
       </c>
       <c r="B159" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>470</v>
+        <v>542</v>
       </c>
       <c r="B160" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>575</v>
+        <v>415</v>
       </c>
       <c r="B161" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="B162" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>567</v>
+        <v>544</v>
       </c>
       <c r="B163" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>479</v>
+        <v>843</v>
       </c>
       <c r="B164" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>499</v>
+        <v>844</v>
       </c>
       <c r="B165" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>489</v>
+        <v>845</v>
       </c>
       <c r="B166" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>548</v>
+        <v>846</v>
       </c>
       <c r="B167" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>555</v>
+        <v>847</v>
       </c>
       <c r="B168" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>505</v>
+        <v>848</v>
       </c>
       <c r="B169" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>601</v>
+        <v>849</v>
       </c>
       <c r="B170" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>614</v>
+        <v>850</v>
       </c>
       <c r="B171" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>530</v>
+        <v>851</v>
       </c>
       <c r="B172" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>487</v>
+        <v>6</v>
       </c>
       <c r="B173" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>547</v>
+        <v>852</v>
       </c>
       <c r="B174" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>593</v>
+        <v>545</v>
       </c>
       <c r="B175" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="B176" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B177" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="B178" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B179" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="B180" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>546</v>
+        <v>853</v>
       </c>
       <c r="B181" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B182" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="B183" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>602</v>
+        <v>553</v>
       </c>
       <c r="B184" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>615</v>
+        <v>554</v>
       </c>
       <c r="B185" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>520</v>
+        <v>555</v>
       </c>
       <c r="B186" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="B187" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
       <c r="B188" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>382</v>
+        <v>558</v>
       </c>
       <c r="B189" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>305</v>
+        <v>854</v>
       </c>
       <c r="B190" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>272</v>
+        <v>559</v>
       </c>
       <c r="B191" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>560</v>
+      </c>
+      <c r="B192" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>561</v>
+      </c>
+      <c r="B193" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>855</v>
+      </c>
+      <c r="B194" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>562</v>
+      </c>
+      <c r="B195" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>856</v>
+      </c>
+      <c r="B196" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>563</v>
+      </c>
+      <c r="B197" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>564</v>
+      </c>
+      <c r="B198" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>426</v>
+      </c>
+      <c r="B199" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>565</v>
+      </c>
+      <c r="B200" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1" xr:uid="{F9DC6C0B-14CA-49AC-B9FE-393229EC3E0E}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
+  <autoFilter ref="A1:B1" xr:uid="{F9DC6C0B-14CA-49AC-B9FE-393229EC3E0E}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B43">
     <sortCondition ref="A1:A43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7139,7 +7217,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>618</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>
@@ -7184,1682 +7262,1682 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>619</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>620</v>
+        <v>568</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>621</v>
+        <v>569</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>622</v>
+        <v>570</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>623</v>
+        <v>571</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>624</v>
+        <v>572</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>625</v>
+        <v>573</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>626</v>
+        <v>574</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>627</v>
+        <v>575</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>628</v>
+        <v>576</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>629</v>
+        <v>577</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>630</v>
+        <v>578</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>631</v>
+        <v>579</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>632</v>
+        <v>580</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>633</v>
+        <v>581</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>634</v>
+        <v>582</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>635</v>
+        <v>583</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>636</v>
+        <v>584</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>637</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>638</v>
+        <v>586</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>639</v>
+        <v>587</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>640</v>
+        <v>588</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>641</v>
+        <v>589</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>642</v>
+        <v>590</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>643</v>
+        <v>591</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>644</v>
+        <v>592</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>645</v>
+        <v>593</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>646</v>
+        <v>594</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>647</v>
+        <v>595</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>648</v>
+        <v>596</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>649</v>
+        <v>597</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>650</v>
+        <v>598</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>651</v>
+        <v>599</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>652</v>
+        <v>600</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>653</v>
+        <v>601</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>654</v>
+        <v>602</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>655</v>
+        <v>603</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>656</v>
+        <v>604</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>657</v>
+        <v>605</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>658</v>
+        <v>606</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>659</v>
+        <v>607</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>660</v>
+        <v>608</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>661</v>
+        <v>609</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>662</v>
+        <v>610</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>663</v>
+        <v>611</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>665</v>
+        <v>613</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>666</v>
+        <v>614</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>667</v>
+        <v>615</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>668</v>
+        <v>616</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>669</v>
+        <v>617</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>671</v>
+        <v>619</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>672</v>
+        <v>620</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>673</v>
+        <v>621</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>674</v>
+        <v>622</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>675</v>
+        <v>623</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>676</v>
+        <v>624</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>677</v>
+        <v>625</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>678</v>
+        <v>626</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>680</v>
+        <v>628</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>681</v>
+        <v>629</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>682</v>
+        <v>630</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>683</v>
+        <v>631</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>684</v>
+        <v>632</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>685</v>
+        <v>633</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>686</v>
+        <v>634</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>687</v>
+        <v>635</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>688</v>
+        <v>636</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>689</v>
+        <v>637</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>690</v>
+        <v>638</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>691</v>
+        <v>639</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>692</v>
+        <v>640</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>693</v>
+        <v>641</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>694</v>
+        <v>642</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>695</v>
+        <v>643</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>696</v>
+        <v>644</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>697</v>
+        <v>645</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>698</v>
+        <v>646</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>699</v>
+        <v>647</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>700</v>
+        <v>648</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>701</v>
+        <v>649</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>702</v>
+        <v>650</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>703</v>
+        <v>651</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>704</v>
+        <v>652</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>705</v>
+        <v>653</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>706</v>
+        <v>654</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>707</v>
+        <v>655</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>708</v>
+        <v>656</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>709</v>
+        <v>657</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>710</v>
+        <v>658</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>711</v>
+        <v>659</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>712</v>
+        <v>660</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>713</v>
+        <v>661</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>714</v>
+        <v>662</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>715</v>
+        <v>663</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>716</v>
+        <v>664</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>717</v>
+        <v>665</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>718</v>
+        <v>666</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>719</v>
+        <v>667</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>720</v>
+        <v>668</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>721</v>
+        <v>669</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>722</v>
+        <v>670</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>723</v>
+        <v>671</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>724</v>
+        <v>672</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>725</v>
+        <v>673</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>726</v>
+        <v>674</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>727</v>
+        <v>675</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>728</v>
+        <v>676</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>729</v>
+        <v>677</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>730</v>
+        <v>678</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>731</v>
+        <v>679</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>732</v>
+        <v>680</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>733</v>
+        <v>681</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>734</v>
+        <v>682</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>735</v>
+        <v>683</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>736</v>
+        <v>684</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>737</v>
+        <v>685</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>738</v>
+        <v>686</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>739</v>
+        <v>687</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>740</v>
+        <v>688</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>741</v>
+        <v>689</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>742</v>
+        <v>690</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>743</v>
+        <v>691</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>744</v>
+        <v>692</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>745</v>
+        <v>693</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>746</v>
+        <v>694</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>747</v>
+        <v>695</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>748</v>
+        <v>696</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>749</v>
+        <v>697</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>750</v>
+        <v>698</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>751</v>
+        <v>699</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>752</v>
+        <v>700</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>753</v>
+        <v>701</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>754</v>
+        <v>702</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>755</v>
+        <v>703</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>756</v>
+        <v>704</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>757</v>
+        <v>705</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>758</v>
+        <v>706</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>759</v>
+        <v>707</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>760</v>
+        <v>708</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>761</v>
+        <v>709</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>762</v>
+        <v>710</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>763</v>
+        <v>711</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>764</v>
+        <v>712</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>765</v>
+        <v>713</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>766</v>
+        <v>714</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>767</v>
+        <v>715</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>768</v>
+        <v>716</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>769</v>
+        <v>717</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>770</v>
+        <v>718</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>771</v>
+        <v>719</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>772</v>
+        <v>720</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>773</v>
+        <v>721</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>774</v>
+        <v>722</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>775</v>
+        <v>723</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>776</v>
+        <v>724</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>777</v>
+        <v>725</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>778</v>
+        <v>726</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>779</v>
+        <v>727</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>780</v>
+        <v>728</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>781</v>
+        <v>729</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>782</v>
+        <v>730</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>783</v>
+        <v>731</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>784</v>
+        <v>732</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>785</v>
+        <v>733</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>786</v>
+        <v>734</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>787</v>
+        <v>735</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>788</v>
+        <v>736</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>789</v>
+        <v>737</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>790</v>
+        <v>738</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>791</v>
+        <v>739</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>792</v>
+        <v>740</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>793</v>
+        <v>741</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>794</v>
+        <v>742</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>795</v>
+        <v>743</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>796</v>
+        <v>744</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>797</v>
+        <v>745</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>798</v>
+        <v>746</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>799</v>
+        <v>747</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>800</v>
+        <v>748</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>801</v>
+        <v>749</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>802</v>
+        <v>750</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>803</v>
+        <v>751</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>804</v>
+        <v>752</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>805</v>
+        <v>753</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>806</v>
+        <v>754</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>807</v>
+        <v>755</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>808</v>
+        <v>756</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>809</v>
+        <v>757</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>810</v>
+        <v>758</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>811</v>
+        <v>759</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>812</v>
+        <v>760</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>813</v>
+        <v>761</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>814</v>
+        <v>762</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>815</v>
+        <v>763</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>816</v>
+        <v>764</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>817</v>
+        <v>765</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>818</v>
+        <v>766</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>819</v>
+        <v>767</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>820</v>
+        <v>768</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>821</v>
+        <v>769</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>822</v>
+        <v>770</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>823</v>
+        <v>771</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>824</v>
+        <v>772</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>825</v>
+        <v>773</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>826</v>
+        <v>774</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>827</v>
+        <v>775</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>828</v>
+        <v>776</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>829</v>
+        <v>777</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>830</v>
+        <v>778</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>831</v>
+        <v>779</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>832</v>
+        <v>780</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>833</v>
+        <v>781</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>834</v>
+        <v>782</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>835</v>
+        <v>783</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>836</v>
+        <v>784</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>837</v>
+        <v>785</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>838</v>
+        <v>786</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>839</v>
+        <v>787</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>840</v>
+        <v>788</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>841</v>
+        <v>789</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>842</v>
+        <v>790</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>843</v>
+        <v>791</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>844</v>
+        <v>792</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>845</v>
+        <v>793</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>846</v>
+        <v>794</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>847</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>

--- a/Study 3/Models_link/Mapping/Map_GCAM.xlsx
+++ b/Study 3/Models_link/Mapping/Map_GCAM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\IAM_COMPACT_1stMC\Study 3\Models_link\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC4AE6D-5AD6-4AA3-B241-5E520FFA7667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7C3DCC-7C03-4A69-B6E0-A552310B4EB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4500" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="shock_map" sheetId="2" r:id="rId1"/>
@@ -47,9 +47,29 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={39E2FE99-4DA4-4FB4-A124-B8EC4F83EAD2}</author>
+    <author>tc={D4F079E9-45EF-4944-A745-9638FD6E282C}</author>
+    <author>tc={2B150A86-F576-40CB-BC63-C2CF4819D305}</author>
   </authors>
   <commentList>
     <comment ref="K12" authorId="0" shapeId="0" xr:uid="{39E2FE99-4DA4-4FB4-A124-B8EC4F83EAD2}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    1 USD 2010 = 0.75 EUR 2010
+</t>
+      </text>
+    </comment>
+    <comment ref="K13" authorId="1" shapeId="0" xr:uid="{D4F079E9-45EF-4944-A745-9638FD6E282C}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    1 USD 2010 = 0.75 EUR 2010
+</t>
+      </text>
+    </comment>
+    <comment ref="K14" authorId="2" shapeId="0" xr:uid="{2B150A86-F576-40CB-BC63-C2CF4819D305}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -63,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="860">
   <si>
     <t>Activity</t>
   </si>
@@ -2468,15 +2488,6 @@
     <t>Secondary Energy|Electricity|Wind</t>
   </si>
   <si>
-    <t>Capital Cost|Electricity|Solar|PV</t>
-  </si>
-  <si>
-    <t>Capital Cost|Electricity|Wind|Offshore</t>
-  </si>
-  <si>
-    <t>Capital Cost|Electricity|Wind|Onshore</t>
-  </si>
-  <si>
     <t>EU27+UK</t>
   </si>
   <si>
@@ -2643,13 +2654,22 @@
   </si>
   <si>
     <t>Production of electricity by other RES</t>
+  </si>
+  <si>
+    <t>Investments for MARIO|Electricity|Solar|PV</t>
+  </si>
+  <si>
+    <t>Investments for MARIO|Electricity|Wind|Offshore</t>
+  </si>
+  <si>
+    <t>Investments for MARIO|Electricity|Wind|Onshore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2664,6 +2684,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3044,6 +3070,14 @@
     <text xml:space="preserve">1 USD 2010 = 0.75 EUR 2010
 </text>
   </threadedComment>
+  <threadedComment ref="K13" dT="2023-11-15T15:20:45.79" personId="{BC933A7D-8588-46D3-AE20-CD3CD07EA9E9}" id="{D4F079E9-45EF-4944-A745-9638FD6E282C}">
+    <text xml:space="preserve">1 USD 2010 = 0.75 EUR 2010
+</text>
+  </threadedComment>
+  <threadedComment ref="K14" dT="2023-11-15T15:20:45.79" personId="{BC933A7D-8588-46D3-AE20-CD3CD07EA9E9}" id="{2B150A86-F576-40CB-BC63-C2CF4819D305}">
+    <text xml:space="preserve">1 USD 2010 = 0.75 EUR 2010
+</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -3052,27 +3086,27 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2:B11"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="41.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="44.3828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.3046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="30.3828125" customWidth="1"/>
+    <col min="6" max="6" width="12.3828125" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.3828125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.84375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3141,8 @@
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>796</v>
       </c>
       <c r="B2" t="s">
@@ -3130,8 +3164,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
         <v>797</v>
       </c>
       <c r="B3" t="s">
@@ -3153,8 +3187,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
         <v>798</v>
       </c>
       <c r="B4" t="s">
@@ -3176,8 +3210,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>109</v>
       </c>
       <c r="B5" t="s">
@@ -3199,8 +3233,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>110</v>
       </c>
       <c r="B6" t="s">
@@ -3222,8 +3256,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>112</v>
       </c>
       <c r="B7" t="s">
@@ -3245,8 +3279,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>799</v>
       </c>
       <c r="B8" t="s">
@@ -3268,15 +3302,15 @@
         <v>260</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>114</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="F9" t="s">
         <v>140</v>
@@ -3291,8 +3325,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>115</v>
       </c>
       <c r="B10" t="s">
@@ -3314,8 +3348,8 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>800</v>
       </c>
       <c r="B11" t="s">
@@ -3337,82 +3371,85 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>801</v>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>857</v>
       </c>
       <c r="B12" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="D12" t="s">
         <v>566</v>
       </c>
       <c r="F12" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="G12" t="s">
         <v>142</v>
       </c>
       <c r="H12" t="s">
+        <v>855</v>
+      </c>
+      <c r="J12" t="s">
+        <v>834</v>
+      </c>
+      <c r="K12">
+        <f>0.75*1000000</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>858</v>
       </c>
-      <c r="J12" t="s">
-        <v>837</v>
-      </c>
-      <c r="K12">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>802</v>
-      </c>
       <c r="B13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="D13" t="s">
         <v>566</v>
       </c>
       <c r="F13" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="G13" t="s">
         <v>142</v>
       </c>
       <c r="H13" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="J13" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="K13">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>803</v>
+        <f>0.75*1000000</f>
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>859</v>
       </c>
       <c r="B14" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="D14" t="s">
         <v>566</v>
       </c>
       <c r="F14" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="G14" t="s">
         <v>142</v>
       </c>
       <c r="H14" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="J14" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <f>0.75*1000000</f>
+        <v>750000</v>
       </c>
     </row>
   </sheetData>
@@ -3423,690 +3460,705 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FC06A9-C5DE-4D61-A94D-90BFF39B3D90}">
-  <dimension ref="A1:A135"/>
+  <dimension ref="A1:A138"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A41"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136:A138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="65.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" s="2" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A134" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A135" s="2" t="s">
         <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A136" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A137" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A138" t="s">
+        <v>859</v>
       </c>
     </row>
   </sheetData>
@@ -4123,12 +4175,12 @@
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
@@ -4136,7 +4188,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>147</v>
       </c>
@@ -4144,15 +4196,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B3" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>146</v>
       </c>
@@ -4160,7 +4212,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>148</v>
       </c>
@@ -4184,12 +4236,12 @@
       <selection pane="bottomRight" activeCell="A115" sqref="A115:A126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="121.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="121.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
@@ -4197,7 +4249,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>267</v>
       </c>
@@ -4205,7 +4257,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>268</v>
       </c>
@@ -4213,7 +4265,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>269</v>
       </c>
@@ -4221,7 +4273,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>270</v>
       </c>
@@ -4229,7 +4281,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>271</v>
       </c>
@@ -4237,7 +4289,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>272</v>
       </c>
@@ -4245,7 +4297,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>273</v>
       </c>
@@ -4253,7 +4305,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>274</v>
       </c>
@@ -4261,7 +4313,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>275</v>
       </c>
@@ -4269,7 +4321,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>276</v>
       </c>
@@ -4277,7 +4329,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>277</v>
       </c>
@@ -4285,7 +4337,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>278</v>
       </c>
@@ -4293,7 +4345,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>279</v>
       </c>
@@ -4301,7 +4353,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>280</v>
       </c>
@@ -4309,7 +4361,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>281</v>
       </c>
@@ -4317,7 +4369,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>282</v>
       </c>
@@ -4325,7 +4377,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>283</v>
       </c>
@@ -4333,7 +4385,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>284</v>
       </c>
@@ -4341,7 +4393,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>285</v>
       </c>
@@ -4349,7 +4401,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>286</v>
       </c>
@@ -4357,7 +4409,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>287</v>
       </c>
@@ -4365,7 +4417,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>288</v>
       </c>
@@ -4373,7 +4425,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>289</v>
       </c>
@@ -4381,7 +4433,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>290</v>
       </c>
@@ -4389,7 +4441,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>291</v>
       </c>
@@ -4397,7 +4449,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>292</v>
       </c>
@@ -4405,7 +4457,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>293</v>
       </c>
@@ -4413,7 +4465,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>294</v>
       </c>
@@ -4421,7 +4473,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>295</v>
       </c>
@@ -4429,7 +4481,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>296</v>
       </c>
@@ -4437,7 +4489,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>297</v>
       </c>
@@ -4445,7 +4497,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>298</v>
       </c>
@@ -4453,7 +4505,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>299</v>
       </c>
@@ -4461,7 +4513,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>300</v>
       </c>
@@ -4469,7 +4521,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>301</v>
       </c>
@@ -4477,7 +4529,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>302</v>
       </c>
@@ -4485,7 +4537,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>303</v>
       </c>
@@ -4493,7 +4545,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>304</v>
       </c>
@@ -4501,7 +4553,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>305</v>
       </c>
@@ -4509,7 +4561,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>306</v>
       </c>
@@ -4517,7 +4569,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>307</v>
       </c>
@@ -4525,7 +4577,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>308</v>
       </c>
@@ -4533,7 +4585,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>309</v>
       </c>
@@ -4541,7 +4593,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>310</v>
       </c>
@@ -4549,7 +4601,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>311</v>
       </c>
@@ -4557,7 +4609,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>312</v>
       </c>
@@ -4565,7 +4617,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>313</v>
       </c>
@@ -4573,7 +4625,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>314</v>
       </c>
@@ -4581,7 +4633,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>315</v>
       </c>
@@ -4589,7 +4641,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>316</v>
       </c>
@@ -4597,7 +4649,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>317</v>
       </c>
@@ -4605,7 +4657,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>318</v>
       </c>
@@ -4613,7 +4665,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>319</v>
       </c>
@@ -4621,7 +4673,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>320</v>
       </c>
@@ -4629,7 +4681,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>321</v>
       </c>
@@ -4637,7 +4689,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>322</v>
       </c>
@@ -4645,7 +4697,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>323</v>
       </c>
@@ -4653,7 +4705,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>324</v>
       </c>
@@ -4661,7 +4713,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>325</v>
       </c>
@@ -4669,7 +4721,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>326</v>
       </c>
@@ -4677,7 +4729,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>327</v>
       </c>
@@ -4685,7 +4737,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>328</v>
       </c>
@@ -4693,15 +4745,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B64" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>329</v>
       </c>
@@ -4709,7 +4761,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>330</v>
       </c>
@@ -4717,7 +4769,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>331</v>
       </c>
@@ -4725,7 +4777,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>332</v>
       </c>
@@ -4733,7 +4785,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>333</v>
       </c>
@@ -4741,7 +4793,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>334</v>
       </c>
@@ -4749,7 +4801,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>335</v>
       </c>
@@ -4757,7 +4809,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>336</v>
       </c>
@@ -4765,7 +4817,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>337</v>
       </c>
@@ -4773,7 +4825,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>338</v>
       </c>
@@ -4781,7 +4833,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>339</v>
       </c>
@@ -4789,7 +4841,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>340</v>
       </c>
@@ -4797,7 +4849,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>341</v>
       </c>
@@ -4805,7 +4857,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>342</v>
       </c>
@@ -4813,7 +4865,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>343</v>
       </c>
@@ -4821,7 +4873,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>344</v>
       </c>
@@ -4829,7 +4881,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>345</v>
       </c>
@@ -4837,7 +4889,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>346</v>
       </c>
@@ -4845,7 +4897,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>347</v>
       </c>
@@ -4853,7 +4905,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>348</v>
       </c>
@@ -4861,7 +4913,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>349</v>
       </c>
@@ -4869,7 +4921,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>350</v>
       </c>
@@ -4877,7 +4929,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>351</v>
       </c>
@@ -4885,7 +4937,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>352</v>
       </c>
@@ -4893,7 +4945,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>353</v>
       </c>
@@ -4901,7 +4953,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>354</v>
       </c>
@@ -4909,7 +4961,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>355</v>
       </c>
@@ -4917,7 +4969,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>356</v>
       </c>
@@ -4925,7 +4977,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>357</v>
       </c>
@@ -4933,7 +4985,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>358</v>
       </c>
@@ -4941,7 +4993,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>359</v>
       </c>
@@ -4949,7 +5001,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>360</v>
       </c>
@@ -4957,7 +5009,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>361</v>
       </c>
@@ -4965,7 +5017,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>362</v>
       </c>
@@ -4973,7 +5025,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>363</v>
       </c>
@@ -4981,7 +5033,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>364</v>
       </c>
@@ -4989,7 +5041,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>365</v>
       </c>
@@ -4997,7 +5049,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>366</v>
       </c>
@@ -5005,7 +5057,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>367</v>
       </c>
@@ -5013,7 +5065,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>368</v>
       </c>
@@ -5021,7 +5073,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>369</v>
       </c>
@@ -5029,7 +5081,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>370</v>
       </c>
@@ -5037,7 +5089,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>371</v>
       </c>
@@ -5045,7 +5097,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>372</v>
       </c>
@@ -5053,7 +5105,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>373</v>
       </c>
@@ -5061,7 +5113,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>374</v>
       </c>
@@ -5069,7 +5121,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>375</v>
       </c>
@@ -5077,7 +5129,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>376</v>
       </c>
@@ -5085,23 +5137,23 @@
         <v>257</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B113" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B114" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>377</v>
       </c>
@@ -5109,7 +5161,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>378</v>
       </c>
@@ -5117,7 +5169,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>379</v>
       </c>
@@ -5125,7 +5177,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>380</v>
       </c>
@@ -5133,7 +5185,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>381</v>
       </c>
@@ -5141,7 +5193,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>382</v>
       </c>
@@ -5149,7 +5201,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>383</v>
       </c>
@@ -5157,7 +5209,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>384</v>
       </c>
@@ -5165,7 +5217,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>385</v>
       </c>
@@ -5173,7 +5225,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>386</v>
       </c>
@@ -5181,7 +5233,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>387</v>
       </c>
@@ -5189,7 +5241,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>388</v>
       </c>
@@ -5197,7 +5249,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>389</v>
       </c>
@@ -5205,47 +5257,47 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
+        <v>805</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A129" t="s">
+        <v>806</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A130" t="s">
+        <v>807</v>
+      </c>
+      <c r="B130" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A131" t="s">
         <v>808</v>
       </c>
-      <c r="B128" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A132" t="s">
         <v>809</v>
       </c>
-      <c r="B129" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>810</v>
-      </c>
-      <c r="B130" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>811</v>
-      </c>
-      <c r="B131" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>812</v>
-      </c>
       <c r="B132" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>390</v>
       </c>
@@ -5253,7 +5305,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>391</v>
       </c>
@@ -5261,7 +5313,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>392</v>
       </c>
@@ -5269,7 +5321,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>393</v>
       </c>
@@ -5277,7 +5329,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>394</v>
       </c>
@@ -5285,7 +5337,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>395</v>
       </c>
@@ -5293,7 +5345,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>396</v>
       </c>
@@ -5301,7 +5353,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>397</v>
       </c>
@@ -5309,7 +5361,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>398</v>
       </c>
@@ -5317,7 +5369,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>399</v>
       </c>
@@ -5325,7 +5377,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>400</v>
       </c>
@@ -5333,15 +5385,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B144" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>401</v>
       </c>
@@ -5349,7 +5401,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>402</v>
       </c>
@@ -5357,7 +5409,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>403</v>
       </c>
@@ -5365,7 +5417,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>404</v>
       </c>
@@ -5373,7 +5425,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>405</v>
       </c>
@@ -5381,7 +5433,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>406</v>
       </c>
@@ -5389,7 +5441,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>407</v>
       </c>
@@ -5397,7 +5449,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>408</v>
       </c>
@@ -5405,7 +5457,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>409</v>
       </c>
@@ -5413,7 +5465,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>410</v>
       </c>
@@ -5421,7 +5473,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>411</v>
       </c>
@@ -5429,7 +5481,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>412</v>
       </c>
@@ -5437,7 +5489,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>413</v>
       </c>
@@ -5445,7 +5497,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>414</v>
       </c>
@@ -5453,7 +5505,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>415</v>
       </c>
@@ -5461,7 +5513,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>416</v>
       </c>
@@ -5469,7 +5521,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>4</v>
       </c>
@@ -5477,7 +5529,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>417</v>
       </c>
@@ -5485,7 +5537,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>418</v>
       </c>
@@ -5493,7 +5545,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>419</v>
       </c>
@@ -5501,7 +5553,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>420</v>
       </c>
@@ -5509,7 +5561,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>421</v>
       </c>
@@ -5517,7 +5569,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>422</v>
       </c>
@@ -5525,7 +5577,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>423</v>
       </c>
@@ -5533,7 +5585,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>424</v>
       </c>
@@ -5541,7 +5593,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>425</v>
       </c>
@@ -5549,7 +5601,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>426</v>
       </c>
@@ -5571,20 +5623,20 @@
   <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E16" sqref="E16"/>
       <selection pane="topRight" activeCell="E16" sqref="E16"/>
       <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
       <selection pane="bottomRight" activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="128.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="128.15234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
@@ -5592,7 +5644,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>427</v>
       </c>
@@ -5600,7 +5652,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>428</v>
       </c>
@@ -5608,7 +5660,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>429</v>
       </c>
@@ -5616,7 +5668,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>430</v>
       </c>
@@ -5624,7 +5676,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>271</v>
       </c>
@@ -5632,7 +5684,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>431</v>
       </c>
@@ -5640,15 +5692,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>432</v>
       </c>
@@ -5656,7 +5708,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>433</v>
       </c>
@@ -5664,7 +5716,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>434</v>
       </c>
@@ -5672,7 +5724,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>435</v>
       </c>
@@ -5680,7 +5732,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>436</v>
       </c>
@@ -5688,7 +5740,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -5696,7 +5748,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>437</v>
       </c>
@@ -5704,7 +5756,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>438</v>
       </c>
@@ -5712,7 +5764,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>439</v>
       </c>
@@ -5720,23 +5772,23 @@
         <v>257</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B18" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="B19" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>440</v>
       </c>
@@ -5744,15 +5796,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="B21" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>441</v>
       </c>
@@ -5760,7 +5812,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>442</v>
       </c>
@@ -5768,7 +5820,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>443</v>
       </c>
@@ -5776,15 +5828,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B25" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>277</v>
       </c>
@@ -5792,7 +5844,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>444</v>
       </c>
@@ -5800,7 +5852,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>445</v>
       </c>
@@ -5808,7 +5860,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>446</v>
       </c>
@@ -5816,7 +5868,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>447</v>
       </c>
@@ -5824,15 +5876,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B31" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>448</v>
       </c>
@@ -5840,7 +5892,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>449</v>
       </c>
@@ -5848,7 +5900,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>450</v>
       </c>
@@ -5856,7 +5908,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>451</v>
       </c>
@@ -5864,7 +5916,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>452</v>
       </c>
@@ -5872,23 +5924,23 @@
         <v>257</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="B37" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B38" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>453</v>
       </c>
@@ -5896,7 +5948,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>454</v>
       </c>
@@ -5904,7 +5956,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>455</v>
       </c>
@@ -5912,15 +5964,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="B42" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>456</v>
       </c>
@@ -5928,7 +5980,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>457</v>
       </c>
@@ -5936,7 +5988,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>7</v>
       </c>
@@ -5944,7 +5996,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>458</v>
       </c>
@@ -5952,7 +6004,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>294</v>
       </c>
@@ -5960,23 +6012,23 @@
         <v>257</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B48" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B49" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>459</v>
       </c>
@@ -5984,7 +6036,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>460</v>
       </c>
@@ -5992,7 +6044,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>461</v>
       </c>
@@ -6000,7 +6052,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>462</v>
       </c>
@@ -6008,7 +6060,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>463</v>
       </c>
@@ -6016,7 +6068,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>464</v>
       </c>
@@ -6024,7 +6076,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>465</v>
       </c>
@@ -6032,7 +6084,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>466</v>
       </c>
@@ -6040,7 +6092,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>467</v>
       </c>
@@ -6048,7 +6100,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>468</v>
       </c>
@@ -6056,7 +6108,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>469</v>
       </c>
@@ -6064,7 +6116,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>470</v>
       </c>
@@ -6072,7 +6124,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>471</v>
       </c>
@@ -6080,7 +6132,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>472</v>
       </c>
@@ -6088,7 +6140,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>473</v>
       </c>
@@ -6096,7 +6148,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>474</v>
       </c>
@@ -6104,7 +6156,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>475</v>
       </c>
@@ -6112,7 +6164,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>476</v>
       </c>
@@ -6120,7 +6172,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>477</v>
       </c>
@@ -6128,7 +6180,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>478</v>
       </c>
@@ -6136,15 +6188,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="B70" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>479</v>
       </c>
@@ -6152,7 +6204,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>480</v>
       </c>
@@ -6160,7 +6212,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>481</v>
       </c>
@@ -6168,7 +6220,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>482</v>
       </c>
@@ -6176,23 +6228,23 @@
         <v>257</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B75" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B76" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>483</v>
       </c>
@@ -6200,7 +6252,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>484</v>
       </c>
@@ -6208,7 +6260,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>485</v>
       </c>
@@ -6216,7 +6268,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>486</v>
       </c>
@@ -6224,7 +6276,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>487</v>
       </c>
@@ -6232,7 +6284,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>488</v>
       </c>
@@ -6240,7 +6292,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>489</v>
       </c>
@@ -6248,7 +6300,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>344</v>
       </c>
@@ -6256,7 +6308,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>490</v>
       </c>
@@ -6264,15 +6316,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="B86" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>491</v>
       </c>
@@ -6280,15 +6332,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="B88" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>492</v>
       </c>
@@ -6296,15 +6348,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="B90" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>355</v>
       </c>
@@ -6312,7 +6364,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>493</v>
       </c>
@@ -6320,7 +6372,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>494</v>
       </c>
@@ -6328,23 +6380,23 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="B94" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="B95" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>495</v>
       </c>
@@ -6352,7 +6404,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>496</v>
       </c>
@@ -6360,7 +6412,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -6368,7 +6420,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>497</v>
       </c>
@@ -6376,15 +6428,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="B100" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>498</v>
       </c>
@@ -6392,7 +6444,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>499</v>
       </c>
@@ -6400,15 +6452,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="B103" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>500</v>
       </c>
@@ -6416,7 +6468,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>501</v>
       </c>
@@ -6424,7 +6476,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>502</v>
       </c>
@@ -6432,7 +6484,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>503</v>
       </c>
@@ -6440,7 +6492,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>504</v>
       </c>
@@ -6448,7 +6500,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>505</v>
       </c>
@@ -6456,7 +6508,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>506</v>
       </c>
@@ -6464,7 +6516,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>507</v>
       </c>
@@ -6472,7 +6524,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>508</v>
       </c>
@@ -6480,7 +6532,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>509</v>
       </c>
@@ -6488,7 +6540,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>510</v>
       </c>
@@ -6496,7 +6548,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>511</v>
       </c>
@@ -6504,7 +6556,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>360</v>
       </c>
@@ -6512,15 +6564,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="B117" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>512</v>
       </c>
@@ -6528,7 +6580,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>513</v>
       </c>
@@ -6536,7 +6588,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>514</v>
       </c>
@@ -6544,7 +6596,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>515</v>
       </c>
@@ -6552,7 +6604,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>516</v>
       </c>
@@ -6560,7 +6612,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>517</v>
       </c>
@@ -6568,7 +6620,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>518</v>
       </c>
@@ -6576,7 +6628,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>519</v>
       </c>
@@ -6584,7 +6636,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>520</v>
       </c>
@@ -6592,7 +6644,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>521</v>
       </c>
@@ -6600,23 +6652,23 @@
         <v>257</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="B128" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="B129" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>522</v>
       </c>
@@ -6624,7 +6676,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>523</v>
       </c>
@@ -6632,7 +6684,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>524</v>
       </c>
@@ -6640,7 +6692,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>525</v>
       </c>
@@ -6648,7 +6700,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>364</v>
       </c>
@@ -6656,7 +6708,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>526</v>
       </c>
@@ -6664,7 +6716,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>527</v>
       </c>
@@ -6672,7 +6724,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>528</v>
       </c>
@@ -6680,7 +6732,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>529</v>
       </c>
@@ -6688,7 +6740,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>530</v>
       </c>
@@ -6696,7 +6748,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>368</v>
       </c>
@@ -6704,7 +6756,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>369</v>
       </c>
@@ -6712,15 +6764,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="B142" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>531</v>
       </c>
@@ -6728,7 +6780,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>532</v>
       </c>
@@ -6736,7 +6788,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>533</v>
       </c>
@@ -6744,7 +6796,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>534</v>
       </c>
@@ -6752,7 +6804,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>392</v>
       </c>
@@ -6760,15 +6812,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="B148" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>535</v>
       </c>
@@ -6776,7 +6828,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>395</v>
       </c>
@@ -6784,15 +6836,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="B151" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>536</v>
       </c>
@@ -6800,15 +6852,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="B153" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>537</v>
       </c>
@@ -6816,7 +6868,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>538</v>
       </c>
@@ -6824,7 +6876,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>539</v>
       </c>
@@ -6832,7 +6884,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>540</v>
       </c>
@@ -6840,15 +6892,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="B158" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>541</v>
       </c>
@@ -6856,7 +6908,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>542</v>
       </c>
@@ -6864,7 +6916,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>415</v>
       </c>
@@ -6872,7 +6924,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>543</v>
       </c>
@@ -6880,7 +6932,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>544</v>
       </c>
@@ -6888,79 +6940,79 @@
         <v>257</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
+        <v>840</v>
+      </c>
+      <c r="B164" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165" t="s">
+        <v>841</v>
+      </c>
+      <c r="B165" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166" t="s">
+        <v>842</v>
+      </c>
+      <c r="B166" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167" t="s">
         <v>843</v>
       </c>
-      <c r="B164" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+      <c r="B167" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168" t="s">
         <v>844</v>
       </c>
-      <c r="B165" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+      <c r="B168" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169" t="s">
         <v>845</v>
       </c>
-      <c r="B166" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+      <c r="B169" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170" t="s">
         <v>846</v>
       </c>
-      <c r="B167" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+      <c r="B170" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171" t="s">
         <v>847</v>
       </c>
-      <c r="B168" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+      <c r="B171" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172" t="s">
         <v>848</v>
       </c>
-      <c r="B169" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>849</v>
-      </c>
-      <c r="B170" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>850</v>
-      </c>
-      <c r="B171" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>851</v>
-      </c>
       <c r="B172" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -6968,15 +7020,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B174" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>545</v>
       </c>
@@ -6984,7 +7036,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>546</v>
       </c>
@@ -6992,7 +7044,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>547</v>
       </c>
@@ -7000,7 +7052,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>548</v>
       </c>
@@ -7008,7 +7060,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>549</v>
       </c>
@@ -7016,7 +7068,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>550</v>
       </c>
@@ -7024,15 +7076,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="B181" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>551</v>
       </c>
@@ -7040,7 +7092,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>552</v>
       </c>
@@ -7048,7 +7100,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>553</v>
       </c>
@@ -7056,7 +7108,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>554</v>
       </c>
@@ -7064,7 +7116,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>555</v>
       </c>
@@ -7072,7 +7124,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>556</v>
       </c>
@@ -7080,7 +7132,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>557</v>
       </c>
@@ -7088,7 +7140,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>558</v>
       </c>
@@ -7096,15 +7148,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B190" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>559</v>
       </c>
@@ -7112,7 +7164,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>560</v>
       </c>
@@ -7120,7 +7172,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>561</v>
       </c>
@@ -7128,15 +7180,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="B194" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>562</v>
       </c>
@@ -7144,15 +7196,15 @@
         <v>257</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="B196" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>563</v>
       </c>
@@ -7160,7 +7212,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>564</v>
       </c>
@@ -7168,7 +7220,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>426</v>
       </c>
@@ -7176,7 +7228,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>565</v>
       </c>
@@ -7201,13 +7253,13 @@
       <selection activeCell="A3" sqref="A3:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.3828125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
@@ -7215,7 +7267,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>566</v>
       </c>
@@ -7233,7 +7285,7 @@
       <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7247,12 +7299,12 @@
       <selection activeCell="A2" sqref="A2:A337"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="64.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>144</v>
       </c>
@@ -7260,1682 +7312,1682 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A101" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A102" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A103" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A104" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A105" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A106" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A107" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A108" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A109" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A110" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A111" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A112" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A113" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A114" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A115" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A116" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A117" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A118" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A119" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A120" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A121" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A122" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A123" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A124" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A125" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A126" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A127" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A128" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A129" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A130" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A131" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A132" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A133" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A134" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A135" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A136" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A137" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A138" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A139" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A140" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A141" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A142" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A143" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A144" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A146" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A147" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A148" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A149" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A150" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A151" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A152" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A153" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A154" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A155" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A156" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A157" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A158" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A159" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A160" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A161" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A162" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A163" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A164" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A165" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A166" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A167" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A168" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A169" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A170" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A171" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A172" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A173" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A174" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A175" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A176" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A177" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A178" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A179" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A180" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A181" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A182" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A183" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A184" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A185" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A186" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A187" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A188" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A189" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A190" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A191" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A192" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A193" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A194" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A195" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A196" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A197" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A198" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A199" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A201" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A202" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A203" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A204" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A205" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A206" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A207" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A208" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A209" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A210" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A211" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A212" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A213" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A214" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A215" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A216" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A217" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A218" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A219" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A220" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A221" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A222" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A223" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A224" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A225" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A226" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A227" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A228" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A229" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A230" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A231" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A232" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A233" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A234" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A235" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A236" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A237" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A238" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A239" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A240" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A241" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A242" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A243" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A244" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A245" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A246" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A247" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A248" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A249" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A250" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A251" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A252" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A253" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A254" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A255" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A256" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A257" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A258" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A259" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A260" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A261" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A262" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A263" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A264" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A265" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A266" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A267" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A268" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A269" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A270" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A271" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A272" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A273" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A274" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A275" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A276" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A277" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A278" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A279" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A280" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A281" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A282" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A283" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A284" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A285" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A286" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A287" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A288" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A289" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A290" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A291" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A292" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A293" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A294" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A295" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A296" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A297" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A298" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A299" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A300" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A301" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A302" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A303" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A304" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A305" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A306" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A307" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A308" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A309" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A310" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A311" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A312" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A313" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A314" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A315" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A316" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A317" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A318" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A319" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A320" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A321" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A322" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A323" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A324" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A325" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A326" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A327" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A328" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A329" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A330" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A331" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A332" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A333" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A334" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A335" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A336" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A337" t="s">
         <v>795</v>
       </c>
